--- a/data/n/17-03-2024.xlsx
+++ b/data/n/17-03-2024.xlsx
@@ -13,30 +13,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Umesh Raghunandanlal Anand</t>
+    <t>Nitin Anand</t>
   </si>
   <si>
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>+919702366423</t>
+    <t>+919769499764</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>umesh.r.anand@gmail.com</t>
+    <t>anandnitin2@gmail.com</t>
   </si>
   <si>
     <t>PAN</t>
   </si>
   <si>
-    <t>AIXPA3414D</t>
+    <t>AKDPA0314N</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -78,18 +78,54 @@
     <t>Units</t>
   </si>
   <si>
-    <t xml:space="preserve">HDFC Liquid Fund-Direct Plan-Growth Option </t>
-  </si>
-  <si>
-    <t>HDFC Mutual Fund</t>
+    <t xml:space="preserve">Parag Parikh Dynamic Asset Allocation Fund - Direct Plan Growth </t>
+  </si>
+  <si>
+    <t>PPFAS Mutual Fund</t>
+  </si>
+  <si>
+    <t>DEBT</t>
+  </si>
+  <si>
+    <t>11202089</t>
+  </si>
+  <si>
+    <t>33621.55</t>
+  </si>
+  <si>
+    <t>34591.31</t>
+  </si>
+  <si>
+    <t>969.76</t>
+  </si>
+  <si>
+    <t>3354.406</t>
+  </si>
+  <si>
+    <t>Parag Parikh Flexi Cap Fund - Direct Plan (formerly Parag Parikh Long Term Value Fund)</t>
+  </si>
+  <si>
+    <t>EQUITY</t>
+  </si>
+  <si>
+    <t>2211999.99</t>
+  </si>
+  <si>
+    <t>2972172.90</t>
+  </si>
+  <si>
+    <t>760172.91</t>
+  </si>
+  <si>
+    <t>37634.399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parag Parikh Liquid Fund Direct Plan Growth </t>
   </si>
   <si>
     <t>CASH</t>
   </si>
   <si>
-    <t>23540205</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -99,130 +135,112 @@
     <t>0.000</t>
   </si>
   <si>
-    <t xml:space="preserve">HDFC Small Cap Fund - Direct Growth Plan </t>
-  </si>
-  <si>
-    <t>EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navi Liquid Fund - Direct Plan - Growth </t>
-  </si>
-  <si>
-    <t>NAVI MF</t>
-  </si>
-  <si>
-    <t>9775075318</t>
-  </si>
-  <si>
-    <t>Parag Parikh Flexi Cap Fund - Direct Plan (formerly Parag Parikh Long Term Value Fund)</t>
-  </si>
-  <si>
-    <t>PPFAS Mutual Fund</t>
-  </si>
-  <si>
-    <t>10320728</t>
-  </si>
-  <si>
-    <t>153688.14</t>
-  </si>
-  <si>
-    <t>224623.25</t>
-  </si>
-  <si>
-    <t>70935.11</t>
-  </si>
-  <si>
-    <t>2844.236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parag Parikh Liquid Fund Direct Plan Growth </t>
-  </si>
-  <si>
-    <t>11932510</t>
-  </si>
-  <si>
-    <t>260980.94</t>
-  </si>
-  <si>
-    <t>384858.03</t>
-  </si>
-  <si>
-    <t>123877.09</t>
-  </si>
-  <si>
-    <t>4873.169</t>
-  </si>
-  <si>
-    <t>12060935</t>
-  </si>
-  <si>
-    <t>232500.09</t>
-  </si>
-  <si>
-    <t>310084.28</t>
-  </si>
-  <si>
-    <t>77584.19</t>
-  </si>
-  <si>
-    <t>3926.365</t>
+    <t>NIPPON INDIA POWER &amp; INFRA FUND - DIRECT PLAN GROWTH PLAN - GROWTH OPTION</t>
+  </si>
+  <si>
+    <t>Nippon India Mutual Fund</t>
+  </si>
+  <si>
+    <t>499293177007</t>
+  </si>
+  <si>
+    <t>234786.91</t>
+  </si>
+  <si>
+    <t>236259.90</t>
+  </si>
+  <si>
+    <t>1472.99</t>
+  </si>
+  <si>
+    <t>751.877</t>
+  </si>
+  <si>
+    <t>NIPPON INDIA SMALL CAP FUND - DIRECT GROWTH PLAN GROWTH OPTION</t>
+  </si>
+  <si>
+    <t>167000.00</t>
+  </si>
+  <si>
+    <t>165032.52</t>
+  </si>
+  <si>
+    <t>-1967.48</t>
+  </si>
+  <si>
+    <t>1094.571</t>
+  </si>
+  <si>
+    <t>quant Small Cap Fund - Direct Plan Growth</t>
+  </si>
+  <si>
+    <t>Quant MF</t>
+  </si>
+  <si>
+    <t>51036013603</t>
+  </si>
+  <si>
+    <t>688000.00</t>
+  </si>
+  <si>
+    <t>661545.23</t>
+  </si>
+  <si>
+    <t>-26454.77</t>
+  </si>
+  <si>
+    <t>2764.921</t>
   </si>
   <si>
     <t>quant Momentum Fund - Direct Plan Growth</t>
   </si>
   <si>
-    <t>Quant MF</t>
-  </si>
-  <si>
-    <t>51035280033</t>
-  </si>
-  <si>
-    <t>1790959.35</t>
-  </si>
-  <si>
-    <t>1969703.84</t>
-  </si>
-  <si>
-    <t>178744.49</t>
-  </si>
-  <si>
-    <t>149686.056</t>
-  </si>
-  <si>
-    <t>quant Small Cap Fund - Direct Plan Growth</t>
-  </si>
-  <si>
-    <t>51038374673</t>
-  </si>
-  <si>
-    <t>60000.00</t>
-  </si>
-  <si>
-    <t>67046.47</t>
-  </si>
-  <si>
-    <t>7046.47</t>
-  </si>
-  <si>
-    <t>280.220</t>
-  </si>
-  <si>
-    <t>51038375554</t>
-  </si>
-  <si>
-    <t>31000.00</t>
-  </si>
-  <si>
-    <t>34752.81</t>
-  </si>
-  <si>
-    <t>3752.81</t>
-  </si>
-  <si>
-    <t>145.249</t>
-  </si>
-  <si>
-    <t>51061147463</t>
+    <t>2914678.66</t>
+  </si>
+  <si>
+    <t>2917223.46</t>
+  </si>
+  <si>
+    <t>2544.8</t>
+  </si>
+  <si>
+    <t>221692.046</t>
+  </si>
+  <si>
+    <t>quant Flexi Cap Fund - Direct Plan Growth</t>
+  </si>
+  <si>
+    <t>127000.00</t>
+  </si>
+  <si>
+    <t>131696.89</t>
+  </si>
+  <si>
+    <t>4696.89</t>
+  </si>
+  <si>
+    <t>1330.019</t>
+  </si>
+  <si>
+    <t>quant Quantamental Fund - Direct Plan</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>366000.00</t>
+  </si>
+  <si>
+    <t>370365.52</t>
+  </si>
+  <si>
+    <t>4365.52</t>
+  </si>
+  <si>
+    <t>16660.617</t>
+  </si>
+  <si>
+    <t>51061147423</t>
   </si>
   <si>
     <t>840000.00</t>
@@ -235,12 +253,6 @@
   </si>
   <si>
     <t>63831.931</t>
-  </si>
-  <si>
-    <t>quant Quantamental Fund - Direct Plan</t>
-  </si>
-  <si>
-    <t>Equity</t>
   </si>
   <si>
     <t>360000.00</t>
@@ -358,14 +370,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="50.78125" customWidth="true"/>
-    <col min="2" max="2" width="17.578125" customWidth="true"/>
+    <col min="2" max="2" width="25.390625" customWidth="true"/>
     <col min="3" max="3" width="21.484375" customWidth="true"/>
     <col min="4" max="4" width="17.578125" customWidth="true"/>
     <col min="5" max="5" width="17.5" customWidth="true"/>
@@ -432,24 +444,24 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="2">
-        <v>3729128.52</v>
+        <v>7943087.11</v>
       </c>
       <c r="B10" t="n" s="2">
-        <v>4188397.920000001</v>
+        <v>8686216.97</v>
       </c>
       <c r="C10" t="n" s="2">
-        <v>459269.39999999997</v>
+        <v>743129.8600000001</v>
       </c>
     </row>
     <row r="12">
@@ -498,348 +510,270 @@
         <v>26</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>22</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>24</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="E24" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="E25" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="E26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -924,19 +858,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s" s="3">
         <v>20</v>
       </c>
       <c r="F9" t="s" s="3">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
